--- a/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-3,62; 1,39</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; -1,04</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 2,87</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 2,04</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 1,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; -0,17</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-32,86%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-90,71%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-12,12%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-22,97%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,97%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-81,98; 102,33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -22,73</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-65,41; 107,15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-60,84; 83,73</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,89; 51,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,75; -2,66</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 4,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 1,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 0,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 2,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; -0,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,17; -1,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 2,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 0,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; -0,9</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>183,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,4%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-16,3; 938,28</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-65,98; 491,63</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,2; 50,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,43; 0,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,39; -36,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,39; 95,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,06; 6,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,15; -33,23</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 2,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 3,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 2,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 6,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 4,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 4,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 3,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 2,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 2,85</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,82%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,05; 632,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,44; 750,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,98; 685,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,25; 547,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,51; 356,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,02; 364,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,34; 338,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,26; 219,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,36; 247,19</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 2,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 1,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 4,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 4,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 2,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 3,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 2,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 1,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 3,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,35%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,86; 262,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,51; 257,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,85; 375,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,49; 163,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,49; 109,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,19; 136,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,0; 128,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,56; 79,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,1; 127,07</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,01</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; 3,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; -2,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; -1,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,49; 5,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,71; 1,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,65; -2,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 3,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,92; -1,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; -2,56</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,21%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,3%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,14%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,07%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-77,06; 151,89</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -27,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,01; 85,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,45; 19,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,74; -32,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,49; 59,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,76; -17,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,9; -47,35</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 2,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 2,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 2,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 5,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 4,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 4,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 3,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 2,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,91</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,06%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,96%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,61%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,38%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,42; 295,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,52; 285,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,34; 303,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,04; 263,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,43; 199,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,21; 219,54</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,42; 177,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,94; 159,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,65; 148,86</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; -1,13</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; -0,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 0,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 3,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 1,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 2,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 0,72</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; -0,02</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 0,76</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,88%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,97%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,75%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,82%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,97%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,27%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,25; -26,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,87; -20,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,91; 4,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,21; 108,69</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,03; 67,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,86; 68,56</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,29; 22,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,66; -0,55</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,17; 25,37</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; -1,29</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; -2,31</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 0,07</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 1,91</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; -0,71</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 7,95</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; -0,12</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; -1,89</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 3,52</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,63%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,01%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,98%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,16%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,51%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,22%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,83%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,57%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,26; -36,75</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,69; -61,46</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,12; 2,28</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,39; 35,96</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,7; -12,97</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,79; 139,63</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,14; -1,18</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,66; -39,51</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 76,53</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 0,03</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; -0,86</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; -0,22</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,9</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; -0,26</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,65</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 0,62</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; -0,84</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,5</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,29%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,23%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,06%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,21%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,7%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,8; 1,86</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,14; -33,94</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,81; -8,47</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,1; 42,58</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,89; -6,64</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 37,42</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; 16,59</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,62; -22,39</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; 14,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-2,0</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 1,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; -1,04</t>
+          <t>-5,47; -1,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 2,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,04</t>
+          <t>-4,18; 1,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 1,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; -0,17</t>
+          <t>-4,14; -0,49</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-90,71%</t>
+          <t>-91,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,97%</t>
+          <t>-26,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-48,97%</t>
+          <t>-53,92%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,95; 116,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,73</t>
+          <t>-100,0; -34,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,7; 132,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,84; 83,73</t>
+          <t>-62,7; 77,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,52; 44,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-73,75; -2,66</t>
+          <t>-76,5; -11,86</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,8</t>
+          <t>-1,44; 0,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; -0,9</t>
+          <t>-3,47; -0,94</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,14%</t>
+          <t>-33,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-67,32%</t>
+          <t>-67,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-61,4%</t>
+          <t>-62,67%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,39; -36,04</t>
+          <t>-83,52; -36,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-80,15; -33,23</t>
+          <t>-81,0; -35,51</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,43</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,47</t>
+          <t>-1,04; 2,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,56</t>
+          <t>-0,16; 4,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,85</t>
+          <t>-0,25; 2,74</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>79,99%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,98; 685,96</t>
+          <t>-60,05; 668,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 364,9</t>
+          <t>-13,22; 355,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 247,19</t>
+          <t>-17,73; 237,27</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,67</t>
+          <t>-1,13; 3,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 4,65</t>
+          <t>-1,18; 4,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,34</t>
+          <t>0,1; 6,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,59</t>
+          <t>-3,06; 2,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,73</t>
+          <t>0,46; 4,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,0</t>
+          <t>-1,37; 2,25</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>64,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>72,95%</t>
+          <t>67,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>78,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>17,98%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,86; 262,15</t>
+          <t>-45,98; 313,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,85; 375,08</t>
+          <t>-44,66; 370,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 163,69</t>
+          <t>-1,42; 220,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 136,25</t>
+          <t>-53,48; 87,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 128,23</t>
+          <t>10,13; 193,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 127,07</t>
+          <t>-36,42; 100,14</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-4,98</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -1,23</t>
+          <t>-7,74; -1,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -2,38</t>
+          <t>-11,6; -2,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -2,56</t>
+          <t>-8,0; -2,55</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-85,21%</t>
+          <t>-85,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-64,3%</t>
+          <t>-63,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-69,07%</t>
+          <t>-68,71%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -27,91</t>
+          <t>-100,0; -29,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-82,74; -32,28</t>
+          <t>-82,4; -31,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,9; -47,35</t>
+          <t>-83,05; -46,88</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,53</t>
+          <t>-1,82; 2,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,67</t>
+          <t>-1,23; 4,6</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,91</t>
+          <t>-0,76; 2,84</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>40,38%</t>
+          <t>37,54%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 303,22</t>
+          <t>-58,51; 294,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 219,54</t>
+          <t>-25,91; 216,83</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 148,86</t>
+          <t>-20,23; 147,47</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,02</t>
+          <t>-4,0; -0,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,02</t>
+          <t>-3,01; 1,61</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,76</t>
+          <t>-2,61; 0,5</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-43,75%</t>
+          <t>-46,36%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>-9,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-18,27%</t>
+          <t>-26,32%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 4,6</t>
+          <t>-75,26; 0,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 68,56</t>
+          <t>-61,37; 50,13</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 25,37</t>
+          <t>-56,35; 11,01</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 0,07</t>
+          <t>-4,44; -0,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,94; 7,95</t>
+          <t>2,04; 7,89</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,52</t>
+          <t>-2,08; 2,69</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-40,98%</t>
+          <t>-53,06%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>71,51%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>11,88%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-66,12; 2,28</t>
+          <t>-82,56; -20,32</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>21,79; 139,63</t>
+          <t>23,01; 139,36</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 76,53</t>
+          <t>-32,95; 54,65</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,73; -0,22</t>
+          <t>-1,97; -0,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,65</t>
+          <t>-1,2; 1,18</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,5</t>
+          <t>-1,25; 0,16</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-33,06%</t>
+          <t>-39,75%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-13,43%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-51,81; -8,47</t>
+          <t>-58,66; -17,64</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 37,42</t>
+          <t>-20,8; 25,14</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 14,11</t>
+          <t>-29,06; 4,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,65</t>
+          <t>-3,68; 1,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,39</t>
+          <t>-3,44; 1,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; -1,08</t>
+          <t>-4,95; -1,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,82</t>
+          <t>-4,46; 2,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,87</t>
+          <t>-4,25; 2,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,83</t>
+          <t>-4,71; 1,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,13</t>
+          <t>-2,9; 1,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,31</t>
+          <t>-3,09; 1,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; -0,49</t>
+          <t>-3,86; -0,36</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,95; 116,49</t>
+          <t>-86,15; 104,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,98; 102,33</t>
+          <t>-79,29; 125,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -34,44</t>
+          <t>-100,0; -25,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,7; 132,57</t>
+          <t>-67,7; 120,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,41; 107,15</t>
+          <t>-70,43; 111,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,7; 77,17</t>
+          <t>-68,99; 67,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,52; 44,18</t>
+          <t>-61,2; 56,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 51,7</t>
+          <t>-60,79; 60,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,5; -11,86</t>
+          <t>-75,32; -8,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,17</t>
+          <t>0,18; 4,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,79</t>
+          <t>-1,02; 1,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,76</t>
+          <t>-1,55; 0,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,13</t>
+          <t>-3,22; 2,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -0,12</t>
+          <t>-5,48; -0,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; -1,64</t>
+          <t>-6,23; -1,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,39</t>
+          <t>-1,06; 2,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,15</t>
+          <t>-2,69; 0,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,94</t>
+          <t>-3,54; -0,87</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 938,28</t>
+          <t>-16,42; 1105,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,98; 491,63</t>
+          <t>-67,82; 477,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,59; 459,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,2; 50,14</t>
+          <t>-45,01; 56,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 0,54</t>
+          <t>-75,08; -5,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,52; -36,52</t>
+          <t>-84,07; -36,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 95,71</t>
+          <t>-26,82; 91,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,06; 6,91</t>
+          <t>-63,51; 13,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-81,0; -35,51</t>
+          <t>-80,16; -30,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,28</t>
+          <t>-1,49; 2,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,01</t>
+          <t>-0,94; 2,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,39</t>
+          <t>-1,1; 2,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,91</t>
+          <t>0,95; 6,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,05</t>
+          <t>-1,43; 3,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,47</t>
+          <t>-0,14; 4,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,75</t>
+          <t>0,32; 3,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,63</t>
+          <t>-0,44; 2,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,74</t>
+          <t>0,06; 2,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,05; 632,53</t>
+          <t>-79,0; 422,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 750,71</t>
+          <t>-56,92; 527,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 668,71</t>
+          <t>-62,67; 632,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,25; 547,08</t>
+          <t>14,18; 560,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 356,43</t>
+          <t>-43,56; 260,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 355,58</t>
+          <t>-11,51; 339,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 338,94</t>
+          <t>7,79; 319,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 219,93</t>
+          <t>-23,3; 247,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 237,27</t>
+          <t>-4,56; 269,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,79</t>
+          <t>-0,87; 3,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,81</t>
+          <t>-2,59; 1,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,51</t>
+          <t>-1,02; 4,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,37</t>
+          <t>0,04; 6,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,96</t>
+          <t>-2,88; 2,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,38</t>
+          <t>-3,29; 2,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,26</t>
+          <t>0,33; 4,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,68</t>
+          <t>-1,83; 1,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,25</t>
+          <t>-1,31; 2,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 313,36</t>
+          <t>-40,16; 348,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,51; 257,76</t>
+          <t>-81,0; 196,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 370,56</t>
+          <t>-48,81; 403,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 220,22</t>
+          <t>-1,58; 226,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 109,72</t>
+          <t>-53,9; 95,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,48; 87,97</t>
+          <t>-55,85; 87,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,13; 193,2</t>
+          <t>5,1; 183,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 79,07</t>
+          <t>-48,11; 78,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 100,14</t>
+          <t>-33,69; 113,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 3,24</t>
+          <t>-4,87; 3,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,34; -2,03</t>
+          <t>-8,39; -2,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,74; -1,2</t>
+          <t>-7,68; -1,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 5,58</t>
+          <t>-7,3; 5,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 1,23</t>
+          <t>-10,89; 1,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,6; -2,32</t>
+          <t>-11,58; -2,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,2</t>
+          <t>-4,02; 3,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -1,15</t>
+          <t>-7,59; -1,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,0; -2,55</t>
+          <t>-7,89; -2,39</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,06; 151,89</t>
+          <t>-78,0; 162,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,44 +1665,44 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -29,98</t>
+          <t>-100,0; -33,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,01; 85,89</t>
+          <t>-51,35; 77,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,45; 19,79</t>
+          <t>-74,87; 28,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-82,4; -31,72</t>
+          <t>-81,03; -31,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-45,49; 59,51</t>
+          <t>-45,26; 70,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-82,76; -17,87</t>
+          <t>-80,03; -16,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,05; -46,88</t>
+          <t>-82,31; -46,54</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,73</t>
+          <t>-2,11; 2,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,36</t>
+          <t>-2,25; 2,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,46</t>
+          <t>-1,82; 2,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,71</t>
+          <t>-1,43; 5,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,46</t>
+          <t>-2,13; 4,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,6</t>
+          <t>-1,16; 4,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,61</t>
+          <t>-0,95; 3,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,83</t>
+          <t>-1,57; 2,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,84</t>
+          <t>-1,01; 2,76</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-73,42; 295,44</t>
+          <t>-71,73; 261,52</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 285,87</t>
+          <t>-77,91; 280,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-58,51; 294,86</t>
+          <t>-55,19; 287,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 263,24</t>
+          <t>-31,84; 261,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 199,72</t>
+          <t>-44,65; 210,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 216,83</t>
+          <t>-25,12; 225,34</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 177,51</t>
+          <t>-26,86; 166,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 159,89</t>
+          <t>-40,49; 140,81</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 147,47</t>
+          <t>-25,9; 145,73</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -1,13</t>
+          <t>-4,86; -1,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -0,74</t>
+          <t>-4,53; -0,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,0; -0,2</t>
+          <t>-3,79; -0,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,16</t>
+          <t>-1,39; 3,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,63</t>
+          <t>-2,53; 1,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,61</t>
+          <t>-2,95; 1,63</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,72</t>
+          <t>-2,37; 0,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,02</t>
+          <t>-3,02; -0,07</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,5</t>
+          <t>-2,69; 0,38</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-87,25; -26,11</t>
+          <t>-87,76; -33,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-83,87; -20,17</t>
+          <t>-84,5; -19,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-75,26; 0,14</t>
+          <t>-72,17; 1,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 108,69</t>
+          <t>-29,44; 118,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-50,03; 67,43</t>
+          <t>-50,21; 65,09</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-61,37; 50,13</t>
+          <t>-61,34; 50,97</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 22,56</t>
+          <t>-50,15; 19,88</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-59,66; -0,55</t>
+          <t>-62,57; -1,76</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-56,35; 11,01</t>
+          <t>-56,79; 10,45</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -1,29</t>
+          <t>-4,42; -1,24</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,35; -2,31</t>
+          <t>-5,22; -2,39</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,44; -0,53</t>
+          <t>-4,33; -0,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 1,91</t>
+          <t>-3,27; 1,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,29; -0,71</t>
+          <t>-5,1; -0,61</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,89</t>
+          <t>2,17; 7,9</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,12</t>
+          <t>-3,56; -0,29</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -1,89</t>
+          <t>-4,83; -1,85</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,69</t>
+          <t>-1,87; 2,67</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-84,26; -36,75</t>
+          <t>-84,53; -33,44</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-97,69; -61,46</t>
+          <t>-97,66; -64,04</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-82,56; -20,32</t>
+          <t>-83,65; -17,71</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 35,96</t>
+          <t>-40,9; 32,16</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-65,7; -12,97</t>
+          <t>-65,2; -10,31</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>23,01; 139,36</t>
+          <t>24,97; 150,54</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-51,14; -1,18</t>
+          <t>-53,53; -5,42</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-74,66; -39,51</t>
+          <t>-75,44; -39,28</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 54,65</t>
+          <t>-30,82; 54,25</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,03</t>
+          <t>-1,71; -0,03</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,31; -0,86</t>
+          <t>-2,38; -0,88</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,97; -0,43</t>
+          <t>-1,95; -0,39</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,9</t>
+          <t>-0,33; 1,89</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,29; -0,26</t>
+          <t>-2,31; -0,32</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,18</t>
+          <t>-1,11; 1,02</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,62</t>
+          <t>-0,69; 0,67</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-2,02; -0,84</t>
+          <t>-1,98; -0,79</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,16</t>
+          <t>-1,21; 0,1</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 1,86</t>
+          <t>-49,99; -0,8</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-68,14; -33,94</t>
+          <t>-68,52; -34,48</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-58,66; -17,64</t>
+          <t>-56,79; -15,98</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 42,58</t>
+          <t>-6,03; 42,16</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-41,89; -6,64</t>
+          <t>-41,08; -6,12</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 25,14</t>
+          <t>-20,38; 22,36</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 16,59</t>
+          <t>-16,05; 18,43</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-46,62; -22,39</t>
+          <t>-46,32; -21,57</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 4,48</t>
+          <t>-28,35; 2,89</t>
         </is>
       </c>
     </row>
